--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518136.5712816528</v>
+        <v>523496.5823916356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17965173.46841271</v>
+        <v>16722200.63474372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3370884.082190457</v>
+        <v>2152646.407911491</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6702520.943084895</v>
+        <v>7241761.22549809</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>196.4437372938978</v>
+        <v>206.9302077985013</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -671,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>20.28369113775181</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -868,10 +870,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153391</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>110.0453300373442</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>59.98902593416107</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170478</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>35.3478058351355</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>51.02685178887896</v>
       </c>
       <c r="W8" t="n">
-        <v>260.1407083082553</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170457</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>420.3713233744091</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>390.9576791075828</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022982</v>
+        <v>3.139541480022771</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>36.70234984341985</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>337.2657048000942</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>246.3049443265652</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>64.90507698037703</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800233</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>337.6783262792255</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>167.6892286721828</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0.4484381783626713</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>246.3049443265652</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225735</v>
       </c>
       <c r="I46" t="n">
-        <v>24.62703520776669</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1553.512078753514</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="C2" t="n">
-        <v>1355.084061284931</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D2" t="n">
-        <v>919.1742764593751</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E2" t="n">
-        <v>485.3995316176702</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>57.53210202687796</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>57.53210202687796</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>492.7867894797959</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1204.746552062411</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L2" t="n">
-        <v>1204.746552062411</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M2" t="n">
-        <v>1204.746552062411</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N2" t="n">
-        <v>1204.746552062411</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
-        <v>1448.992488049632</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2160.952250632246</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.097772938769</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.097772938769</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1979.811649238422</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563.7038470181708</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>457.247385854813</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>362.1570970013663</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>268.03668232832</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>184.6528439444816</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>99.26775421066549</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>57.53210202687796</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>83.59577518733556</v>
+        <v>1026.750730197022</v>
       </c>
       <c r="J3" t="n">
-        <v>83.59577518733556</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="K3" t="n">
-        <v>350.9003841966569</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="L3" t="n">
-        <v>350.9003841966569</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="M3" t="n">
-        <v>350.9003841966569</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="N3" t="n">
-        <v>350.9003841966569</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="O3" t="n">
-        <v>350.9003841966569</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="P3" t="n">
-        <v>1062.860146779272</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1603.599085411347</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1720.771863505687</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1657.31642595407</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1527.137782284672</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1350.80123528464</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.683717346639</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>966.3609630798333</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>811.4935273187132</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>685.0077480979339</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1193.900953985628</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>1021.339242468853</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>855.4612496703753</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>685.7032459211125</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>508.9961918828687</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>488.5076149760487</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>348.6054406664232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>259.9454914410986</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>346.5251766057884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>621.283631176924</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>1039.493512944885</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1498.977380125798</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1941.236183283443</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2360.905432509224</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2708.412326479566</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2855.18728004927</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2695.945911347267</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2695.945911347267</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2417.512910600372</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V4" t="n">
-        <v>2130.557402470803</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W4" t="n">
-        <v>1858.530998057094</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X4" t="n">
-        <v>1613.139243390507</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1385.719572704615</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>997.9542620220267</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="C5" t="n">
-        <v>997.9542620220267</v>
+        <v>917.5952203178363</v>
       </c>
       <c r="D5" t="n">
-        <v>886.7973629944063</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E5" t="n">
-        <v>886.7973629944063</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>458.9299334036141</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>492.7867894797959</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>492.7867894797959</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>492.7867894797959</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>492.7867894797959</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>737.032725467017</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O5" t="n">
-        <v>1448.992488049632</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P5" t="n">
-        <v>2160.952250632246</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q5" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2656.537874216937</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2656.537874216937</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2656.537874216937</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2251.68241962797</v>
+        <v>2609.465850740356</v>
       </c>
       <c r="X5" t="n">
-        <v>1832.539956207281</v>
+        <v>2190.323387319667</v>
       </c>
       <c r="Y5" t="n">
-        <v>1424.253832506934</v>
+        <v>1782.037263619321</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>83.59577518733556</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>408.1541001535479</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1062.860146779272</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="L6" t="n">
-        <v>1062.860146779272</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="M6" t="n">
-        <v>1062.860146779272</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N6" t="n">
-        <v>1062.860146779272</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="O6" t="n">
-        <v>1062.860146779272</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P6" t="n">
-        <v>1062.860146779272</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
-        <v>1603.599085411347</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>767.0259394444902</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>594.4642279277151</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>428.5862351292378</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>258.8282313799751</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>82.12117734173128</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="G7" t="n">
-        <v>57.53210202687796</v>
+        <v>89.10607090755332</v>
       </c>
       <c r="H7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2514.950343227674</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2269.070896806129</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1990.637896059235</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1703.682387929665</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1431.655983515957</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1186.264228849369</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.8445581634774</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.982191045746</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C8" t="n">
-        <v>894.8397182291696</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D8" t="n">
-        <v>458.9299334036141</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E8" t="n">
-        <v>458.9299334036141</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F8" t="n">
-        <v>458.9299334036141</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>57.53210202687796</v>
+        <v>373.9707213604629</v>
       </c>
       <c r="H8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J8" t="n">
-        <v>492.7867894797959</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7867894797959</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L8" t="n">
-        <v>492.7867894797959</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="M8" t="n">
-        <v>906.1867902200739</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="N8" t="n">
-        <v>1618.146552802689</v>
+        <v>3008.262560801772</v>
       </c>
       <c r="O8" t="n">
-        <v>1618.146552802689</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="P8" t="n">
-        <v>2330.106315385303</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="Q8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>2792.953227527735</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T8" t="n">
-        <v>2792.953227527735</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U8" t="n">
-        <v>2792.953227527735</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V8" t="n">
-        <v>2430.336277461562</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="W8" t="n">
-        <v>2167.567885231001</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.567885231001</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.281761530654</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I9" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K9" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="L9" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="M9" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="N9" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="O9" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="P9" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1136.590262638759</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C10" t="n">
-        <v>964.0285511219844</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D10" t="n">
-        <v>798.1505583235071</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E10" t="n">
-        <v>628.3925545742443</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F10" t="n">
-        <v>451.6855005360005</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G10" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J10" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2674.191711929678</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T10" t="n">
-        <v>2428.312265508133</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U10" t="n">
-        <v>2360.202219253504</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V10" t="n">
-        <v>2073.246711123934</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W10" t="n">
-        <v>1801.220306710226</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X10" t="n">
-        <v>1555.828552043638</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y10" t="n">
-        <v>1328.408881357747</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1281.704109567722</v>
+        <v>1638.728977780687</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.704109567722</v>
+        <v>1638.728977780687</v>
       </c>
       <c r="D11" t="n">
-        <v>1281.704109567722</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="E11" t="n">
-        <v>886.7973629944063</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F11" t="n">
-        <v>458.9299334036141</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G11" t="n">
-        <v>57.53210202687796</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K11" t="n">
-        <v>769.4918646094927</v>
+        <v>106.7764678514912</v>
       </c>
       <c r="L11" t="n">
-        <v>769.4918646094927</v>
+        <v>1151.520713557879</v>
       </c>
       <c r="M11" t="n">
-        <v>769.4918646094927</v>
+        <v>2196.264959264266</v>
       </c>
       <c r="N11" t="n">
-        <v>769.4918646094927</v>
+        <v>3241.009204970653</v>
       </c>
       <c r="O11" t="n">
-        <v>1481.451627192107</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="P11" t="n">
-        <v>2193.411389774722</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="Q11" t="n">
-        <v>2739.910175733317</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T11" t="n">
-        <v>2876.605101343898</v>
+        <v>3917.469770597835</v>
       </c>
       <c r="U11" t="n">
-        <v>2876.605101343898</v>
+        <v>3658.247467914852</v>
       </c>
       <c r="V11" t="n">
-        <v>2513.988151277725</v>
+        <v>3295.630517848678</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.132696688758</v>
+        <v>2890.775063259712</v>
       </c>
       <c r="X11" t="n">
-        <v>1689.990233268069</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1281.704109567722</v>
+        <v>2063.346476138676</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I12" t="n">
-        <v>83.59577518733556</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J12" t="n">
-        <v>408.1541001535479</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K12" t="n">
-        <v>1088.887620223925</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L12" t="n">
-        <v>1088.887620223925</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M12" t="n">
-        <v>1088.887620223925</v>
+        <v>702.9192932032407</v>
       </c>
       <c r="N12" t="n">
-        <v>1088.887620223925</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="O12" t="n">
-        <v>1088.887620223925</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="P12" t="n">
-        <v>1088.887620223925</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="Q12" t="n">
-        <v>1603.599085411347</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="R12" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.6081181498621</v>
+        <v>772.4997935538031</v>
       </c>
       <c r="C13" t="n">
-        <v>573.046406633087</v>
+        <v>599.938082037028</v>
       </c>
       <c r="D13" t="n">
-        <v>407.1684138346097</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="E13" t="n">
-        <v>237.410410085347</v>
+        <v>264.302085489288</v>
       </c>
       <c r="F13" t="n">
-        <v>60.7033560471032</v>
+        <v>87.59503145104421</v>
       </c>
       <c r="G13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J13" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2652.77389063505</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S13" t="n">
-        <v>2493.532521933046</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T13" t="n">
-        <v>2247.653075511501</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U13" t="n">
-        <v>1969.220074764607</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.264566635037</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.238162221329</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.846407554741</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.4267368688493</v>
+        <v>964.3184122727903</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>958.7991864660047</v>
+        <v>2221.932830255045</v>
       </c>
       <c r="C14" t="n">
-        <v>958.7991864660047</v>
+        <v>1783.790357438468</v>
       </c>
       <c r="D14" t="n">
-        <v>522.8894016404493</v>
+        <v>1347.880572612912</v>
       </c>
       <c r="E14" t="n">
-        <v>522.8894016404493</v>
+        <v>914.1058277712075</v>
       </c>
       <c r="F14" t="n">
-        <v>95.02197204965699</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G14" t="n">
-        <v>95.02197204965699</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="H14" t="n">
-        <v>57.94889139973796</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J14" t="n">
-        <v>492.7867894797959</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K14" t="n">
-        <v>1204.746552062411</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L14" t="n">
-        <v>1204.746552062411</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="M14" t="n">
-        <v>1204.746552062411</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="N14" t="n">
-        <v>1204.746552062411</v>
+        <v>3008.262560801772</v>
       </c>
       <c r="O14" t="n">
-        <v>1448.992488049632</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="P14" t="n">
-        <v>2160.952250632246</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="Q14" t="n">
-        <v>2707.451036590841</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>2617.382798660915</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V14" t="n">
-        <v>2617.382798660915</v>
+        <v>3880.516442449955</v>
       </c>
       <c r="W14" t="n">
-        <v>2212.527344071948</v>
+        <v>3475.660987860988</v>
       </c>
       <c r="X14" t="n">
-        <v>1793.384880651259</v>
+        <v>3056.518524440299</v>
       </c>
       <c r="Y14" t="n">
-        <v>1385.098756950913</v>
+        <v>2648.232400739952</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I15" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1136.590262638759</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>964.0285511219844</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>798.1505583235071</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>628.3925545742443</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>451.6855005360005</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H16" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I16" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J16" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.191711929678</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.312265508133</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>2360.202219253504</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>2073.246711123934</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1801.220306710226</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1555.828552043638</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>1328.408881357747</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1793.226534101507</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1355.084061284931</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>919.1742764593751</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>485.3995316176702</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>57.53210202687796</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>57.53210202687796</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>57.53210202687796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>57.53210202687796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>769.4918646094927</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1481.451627192107</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2193.411389774722</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>2876.605101343898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>2876.605101343898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2876.605101343898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2876.605101343898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2876.605101343898</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2876.605101343898</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2876.605101343898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2876.605101343898</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2876.605101343898</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2627.812228286762</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2219.526104586415</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7038470181708</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>457.247385854813</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>362.1570970013663</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>268.03668232832</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>184.6528439444816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>99.26775421066549</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>83.59577518733556</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>408.1541001535479</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1603.599085411347</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1720.771863505687</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1657.31642595407</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1527.137782284672</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1350.80123528464</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.683717346639</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>966.3609630798333</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>811.4935273187132</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>685.0077480979339</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1136.590262638759</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>964.0285511219844</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>798.1505583235071</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>628.3925545742443</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>451.6855005360005</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>286.0942255618281</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>146.1920512522026</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1117871915678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>418.8702417627034</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>837.0801235306644</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1296.563990711577</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1738.822793869222</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.492043095003</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2505.998937065345</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2674.191711929678</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2428.312265508133</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.202219253504</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2073.246711123934</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1801.220306710226</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1555.828552043638</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1328.408881357747</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443915</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694652</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
-        <v>2499.553657656408</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
         <v>2496.382403636182</v>
@@ -5932,28 +5934,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3205.876241053795</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>3033.31452953702</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>2867.436536738543</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>2801.87585291998</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>2801.87585291998</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945808</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
         <v>2496.382403636182</v>
@@ -6172,25 +6174,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>4953.800644836978</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>4707.921198415434</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>4429.488197668539</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>4142.53268953897</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>3870.506285125261</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>3625.114530458674</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>3397.694859772782</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="32">
@@ -6698,31 +6700,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688178</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321677</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532228</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968675</v>
+        <v>1963.518315095384</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.042013538981</v>
+        <v>2846.380210748969</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3064.120855053443</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>2957.664393890086</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>2862.574105036639</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>2768.453690363593</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>2685.069851979754</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>2599.684762245938</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>2557.949110062151</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>2584.012783222609</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>2908.571108188821</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4104.01609344662</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>4157.733433989342</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4027.554790319944</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>3851.218243319912</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>3652.100725381912</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>3466.777971115106</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>3311.910535353986</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>3185.424756133207</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>931.7411622558066</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910045</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2433.786119617446</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2155.353118870551</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1868.397610740981</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1596.371206327273</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1350.979451660686</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1123.559780974794</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1793.226534101507</v>
+        <v>1637.046905653768</v>
       </c>
       <c r="C44" t="n">
-        <v>1355.084061284931</v>
+        <v>1637.046905653768</v>
       </c>
       <c r="D44" t="n">
-        <v>919.1742764593751</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E44" t="n">
-        <v>485.3995316176702</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F44" t="n">
-        <v>57.53210202687796</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G44" t="n">
-        <v>57.53210202687796</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J44" t="n">
-        <v>57.53210202687796</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>57.53210202687796</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>769.4918646094927</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="M44" t="n">
-        <v>1481.451627192107</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="N44" t="n">
-        <v>2193.411389774722</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O44" t="n">
-        <v>2876.605101343898</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P44" t="n">
-        <v>2876.605101343898</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q44" t="n">
-        <v>2876.605101343898</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T44" t="n">
-        <v>2876.605101343898</v>
+        <v>3917.469770597835</v>
       </c>
       <c r="U44" t="n">
-        <v>2876.605101343898</v>
+        <v>3658.247467914852</v>
       </c>
       <c r="V44" t="n">
-        <v>2876.605101343898</v>
+        <v>3295.630517848678</v>
       </c>
       <c r="W44" t="n">
-        <v>2876.605101343898</v>
+        <v>2890.775063259712</v>
       </c>
       <c r="X44" t="n">
-        <v>2627.812228286762</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y44" t="n">
-        <v>2219.526104586415</v>
+        <v>2063.346476138676</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1719.537084856382</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>1613.080623693025</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>1517.990334839578</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>1423.869920166532</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>1340.486081782693</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>1255.100992048877</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H45" t="n">
-        <v>1213.365339865089</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I45" t="n">
-        <v>1239.429013025547</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>1563.987337991759</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K45" t="n">
-        <v>2218.693384617483</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>2218.693384617483</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>2218.693384617483</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>2218.693384617483</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.693384617483</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>2218.693384617483</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>2759.432323249559</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>2876.605101343898</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>2813.149663792281</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>2682.971020122883</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>2506.634473122851</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>2307.516955184851</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>2122.194200918045</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>1967.326765156925</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>1840.840985936145</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>767.0259394444902</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C46" t="n">
-        <v>594.4642279277151</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D46" t="n">
-        <v>594.4642279277151</v>
+        <v>614.7192792351823</v>
       </c>
       <c r="E46" t="n">
-        <v>424.7062241784524</v>
+        <v>444.9612754859195</v>
       </c>
       <c r="F46" t="n">
-        <v>247.9991701402086</v>
+        <v>268.2542214476757</v>
       </c>
       <c r="G46" t="n">
-        <v>82.40789516603624</v>
+        <v>102.6629464735034</v>
       </c>
       <c r="H46" t="n">
-        <v>82.40789516603624</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J46" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2514.950343227674</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T46" t="n">
-        <v>2269.070896806129</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U46" t="n">
-        <v>1990.637896059235</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V46" t="n">
-        <v>1703.682387929665</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W46" t="n">
-        <v>1431.655983515957</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X46" t="n">
-        <v>1186.264228849369</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y46" t="n">
-        <v>958.8445581634774</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>719.1512753359746</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>246.7130666537587</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434582</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>270.0046555649711</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>246.7130666537587</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
-        <v>417.5757583235132</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>673.1591159399932</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>22.578475172396</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.0756824349305</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>624.7429452246682</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
-        <v>246.7130666537587</v>
+        <v>673.1591159399932</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>719.1512753359746</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>719.1512753359746</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>690.0946581506828</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.515419242839</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1011.616850682012</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>891.7796925793782</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>719.1512753359746</v>
+        <v>346.4825480643335</v>
       </c>
       <c r="M44" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>690.0946581506828</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>237.3173107945131</v>
+        <v>226.8308402899096</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22607,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,10 +22758,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>321.5053569399557</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,7 +22837,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -22844,7 +22846,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>340.8178741089159</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22951,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23078,13 +23080,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>307.9639287766328</v>
       </c>
       <c r="W8" t="n">
-        <v>140.6661917348217</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>1.665251405649599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>38.47931828570495</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.536503167796</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>21.72507576541756</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>168.6460944599172</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1553467313931</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.3124542862862</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.146865729424519</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.1022487989372</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>168.6460944599172</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I46" t="n">
-        <v>63.14631452530472</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469957.4846283133</v>
+        <v>448790.0428884724</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469957.4846283133</v>
+        <v>448790.0428884725</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469957.4846283133</v>
+        <v>607755.5360729407</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469957.4846283133</v>
+        <v>607755.5360729407</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469957.4846283133</v>
+        <v>607755.5360729407</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469957.4846283132</v>
+        <v>699156.0332870968</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699156.0332870969</v>
+        <v>699156.0332870968</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699156.0332870968</v>
+        <v>699156.0332870967</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699156.0332870968</v>
+        <v>699156.0332870967</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699156.0332870968</v>
+        <v>607755.5360729407</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469957.4846283132</v>
+        <v>607755.5360729408</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185924.6619285843</v>
+        <v>177550.3949404002</v>
       </c>
       <c r="C2" t="n">
-        <v>185924.6619285844</v>
+        <v>177550.3949404002</v>
       </c>
       <c r="D2" t="n">
-        <v>185924.6619285843</v>
+        <v>240440.3510435748</v>
       </c>
       <c r="E2" t="n">
-        <v>185924.6619285843</v>
+        <v>240440.3510435748</v>
       </c>
       <c r="F2" t="n">
-        <v>185924.6619285844</v>
+        <v>240440.3510435748</v>
       </c>
       <c r="G2" t="n">
-        <v>185924.6619285843</v>
+        <v>276600.23167211</v>
       </c>
       <c r="H2" t="n">
         <v>276600.23167211</v>
@@ -26350,10 +26352,10 @@
         <v>276600.23167211</v>
       </c>
       <c r="O2" t="n">
-        <v>276600.23167211</v>
+        <v>240440.3510435748</v>
       </c>
       <c r="P2" t="n">
-        <v>185924.6619285843</v>
+        <v>240440.3510435748</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241004.1328444178</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630934</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>61110.89210613196</v>
       </c>
       <c r="H3" t="n">
-        <v>150852.7017106108</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188161.6162840057</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.1370162041</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36675.27256354076</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="C4" t="n">
-        <v>36675.27256354076</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="D4" t="n">
-        <v>36675.27256354076</v>
+        <v>47428.97105916857</v>
       </c>
       <c r="E4" t="n">
-        <v>36675.27256354077</v>
+        <v>47428.97105916857</v>
       </c>
       <c r="F4" t="n">
-        <v>36675.27256354076</v>
+        <v>47428.97105916857</v>
       </c>
       <c r="G4" t="n">
-        <v>36675.27256354076</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
@@ -26454,10 +26456,10 @@
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962276</v>
+        <v>47428.97105916858</v>
       </c>
       <c r="P4" t="n">
-        <v>36675.27256354076</v>
+        <v>47428.97105916859</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>77351.99754042726</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="F5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="G5" t="n">
-        <v>43724.39754042725</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="P5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169106.7410198015</v>
+        <v>-155385.203053354</v>
       </c>
       <c r="C6" t="n">
-        <v>71897.39182461635</v>
+        <v>68314.49553069087</v>
       </c>
       <c r="D6" t="n">
-        <v>71897.39182461626</v>
+        <v>-25235.01702610981</v>
       </c>
       <c r="E6" t="n">
-        <v>105524.9918246163</v>
+        <v>128849.3091369836</v>
       </c>
       <c r="F6" t="n">
-        <v>105524.9918246164</v>
+        <v>128849.3091369836</v>
       </c>
       <c r="G6" t="n">
-        <v>105524.9918246163</v>
+        <v>83209.27585056282</v>
       </c>
       <c r="H6" t="n">
-        <v>-6532.533753916097</v>
+        <v>144320.1679566948</v>
       </c>
       <c r="I6" t="n">
-        <v>144320.1679566947</v>
+        <v>144320.1679566948</v>
       </c>
       <c r="J6" t="n">
-        <v>-43841.4483273109</v>
+        <v>-30331.18076101146</v>
       </c>
       <c r="K6" t="n">
-        <v>144320.1679566947</v>
+        <v>144320.1679566948</v>
       </c>
       <c r="L6" t="n">
+        <v>46176.03094049066</v>
+      </c>
+      <c r="M6" t="n">
         <v>144320.1679566948</v>
       </c>
-      <c r="M6" t="n">
-        <v>144320.1679566947</v>
-      </c>
       <c r="N6" t="n">
-        <v>144320.1679566947</v>
+        <v>144320.1679566948</v>
       </c>
       <c r="O6" t="n">
-        <v>144320.1679566948</v>
+        <v>128849.3091369836</v>
       </c>
       <c r="P6" t="n">
-        <v>105524.9918246163</v>
+        <v>128849.3091369836</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
-        <v>719.1512753359746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="H4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359743</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="P4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>719.1512753359746</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>246.7130666537587</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>20.13097499434582</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>270.0046555649711</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>246.7130666537587</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
-        <v>417.5757583235132</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>673.1591159399932</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>22.578475172396</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.0756824349305</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>624.7429452246682</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
-        <v>246.7130666537587</v>
+        <v>673.1591159399932</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>719.1512753359746</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>719.1512753359746</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>690.0946581506828</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.515419242839</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1011.616850682012</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>891.7796925793782</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>719.1512753359746</v>
+        <v>346.4825480643335</v>
       </c>
       <c r="M44" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>690.0946581506828</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523496.5823916356</v>
+        <v>521704.3598004055</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16722200.63474372</v>
+        <v>16722200.63474371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2152646.407911491</v>
+        <v>2152646.40791149</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>206.9302077985013</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>98.2137066978941</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>31.24391673888101</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>131.5141848153391</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>59.98902593416107</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>212.4828355506833</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>35.3478058351355</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>248.7549524029647</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>51.02685178887896</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170457</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>420.3713233744091</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1432,10 +1432,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>374.4833972370961</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022771</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>337.2657048000942</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>164.6116318422352</v>
       </c>
     </row>
     <row r="15">
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>331.9319412301028</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>337.6783262792255</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>167.6892286721828</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4484381783626713</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>337.6783262792264</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225735</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2250.918363010739</v>
+        <v>1888.301412944565</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.897951093061</v>
+        <v>1450.158940127988</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>1014.249155302433</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>580.474410460728</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>152.6069808699357</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4366,16 +4366,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="X2" t="n">
-        <v>2250.918363010739</v>
+        <v>1888.301412944565</v>
       </c>
       <c r="Y2" t="n">
-        <v>2250.918363010739</v>
+        <v>1888.301412944565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1026.750730197022</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1351.309055163234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>597.017061147763</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>427.2590573985003</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>250.5520033602565</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>84.96072838608413</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,40 +4500,40 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2243.522190013252</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1956.566681883682</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1684.540277469974</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1355.737693134413</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>917.5952203178363</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>481.6854354922808</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4579,40 +4579,40 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.465850740356</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X5" t="n">
-        <v>2190.323387319667</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.037263619321</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4713,16 +4713,16 @@
         <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>254.6973458817257</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>89.10607090755332</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2511.062984811828</v>
+        <v>2045.333029354116</v>
       </c>
       <c r="C8" t="n">
-        <v>2072.920511995252</v>
+        <v>1607.190556537539</v>
       </c>
       <c r="D8" t="n">
-        <v>1637.010727169696</v>
+        <v>1171.280771711984</v>
       </c>
       <c r="E8" t="n">
-        <v>1203.235982327991</v>
+        <v>737.5060268702787</v>
       </c>
       <c r="F8" t="n">
-        <v>775.368552737199</v>
+        <v>737.5060268702787</v>
       </c>
       <c r="G8" t="n">
-        <v>373.9707213604629</v>
+        <v>336.1081954935426</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
-        <v>84.42377743081919</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>1963.518315095384</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="M8" t="n">
-        <v>1963.518315095384</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N8" t="n">
-        <v>3008.262560801772</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O8" t="n">
-        <v>3674.690085582365</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P8" t="n">
-        <v>3674.690085582365</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q8" t="n">
-        <v>4221.18887154096</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R8" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4221.18887154096</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.18887154096</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U8" t="n">
-        <v>4221.18887154096</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V8" t="n">
-        <v>4169.646597006738</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W8" t="n">
-        <v>3764.791142417772</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X8" t="n">
-        <v>3345.648678997083</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y8" t="n">
-        <v>2937.362555296736</v>
+        <v>2471.632599839023</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O9" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
         <v>1089.751822183213</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.9176148484312</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C10" t="n">
-        <v>621.3559033316561</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D10" t="n">
-        <v>455.4779105331788</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7199067839161</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F10" t="n">
-        <v>109.0128527456723</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
         <v>171.0034625955091</v>
@@ -4989,25 +4989,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2541.842018631615</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T10" t="n">
-        <v>2295.96257221007</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.529571463176</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V10" t="n">
-        <v>1730.574063333606</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.547658919898</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X10" t="n">
-        <v>1213.15590425331</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.7362335674184</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1638.728977780687</v>
+        <v>2082.778765848176</v>
       </c>
       <c r="C11" t="n">
-        <v>1638.728977780687</v>
+        <v>1644.6362930316</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.819192955131</v>
+        <v>1208.726508206044</v>
       </c>
       <c r="E11" t="n">
-        <v>1202.819192955131</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="F11" t="n">
         <v>774.9517633643391</v>
@@ -5035,31 +5035,31 @@
         <v>373.5539319876029</v>
       </c>
       <c r="H11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>84.42377743081919</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>106.7764678514912</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1151.520713557879</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M11" t="n">
-        <v>2196.264959264266</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N11" t="n">
-        <v>3241.009204970653</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O11" t="n">
-        <v>4221.18887154096</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P11" t="n">
-        <v>4221.18887154096</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q11" t="n">
         <v>4221.18887154096</v>
@@ -5068,25 +5068,25 @@
         <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724796</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597835</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914852</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V11" t="n">
-        <v>3295.630517848678</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.775063259712</v>
+        <v>2917.364460033431</v>
       </c>
       <c r="X11" t="n">
-        <v>2471.632599839023</v>
+        <v>2917.364460033431</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.346476138676</v>
+        <v>2509.078336333084</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L12" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M12" t="n">
-        <v>702.9192932032407</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N12" t="n">
-        <v>1747.663538909628</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O12" t="n">
-        <v>1747.663538909628</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P12" t="n">
-        <v>1747.663538909628</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1747.663538909628</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
         <v>1747.663538909628</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>772.4997935538031</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C13" t="n">
-        <v>599.938082037028</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D13" t="n">
-        <v>434.0600892385507</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E13" t="n">
-        <v>264.302085489288</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>87.59503145104421</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
         <v>171.0034625955091</v>
@@ -5223,28 +5223,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2520.424197336987</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T13" t="n">
-        <v>2274.544750915442</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U13" t="n">
-        <v>1996.111750168548</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.156242038978</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.12983762527</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X13" t="n">
-        <v>1191.738082958682</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.3184122727903</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="14">
@@ -5263,40 +5263,40 @@
         <v>1347.880572612912</v>
       </c>
       <c r="E14" t="n">
-        <v>914.1058277712075</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="F14" t="n">
         <v>486.2383981804153</v>
       </c>
       <c r="G14" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>84.42377743081919</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1963.518315095384</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M14" t="n">
-        <v>1963.518315095384</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N14" t="n">
-        <v>3008.262560801772</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O14" t="n">
-        <v>3674.690085582365</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P14" t="n">
-        <v>3674.690085582365</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q14" t="n">
         <v>4221.18887154096</v>
@@ -5308,19 +5308,19 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>4221.18887154096</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U14" t="n">
-        <v>4221.18887154096</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="V14" t="n">
-        <v>3880.516442449955</v>
+        <v>3638.504694347826</v>
       </c>
       <c r="W14" t="n">
-        <v>3475.660987860988</v>
+        <v>3233.649239758859</v>
       </c>
       <c r="X14" t="n">
-        <v>3056.518524440299</v>
+        <v>2814.50677633817</v>
       </c>
       <c r="Y14" t="n">
         <v>2648.232400739952</v>
@@ -5348,31 +5348,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P15" t="n">
         <v>1089.751822183213</v>
@@ -5427,13 +5427,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5509,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2221.516040882185</v>
+        <v>1979.921082152915</v>
       </c>
       <c r="C41" t="n">
-        <v>1783.373568065608</v>
+        <v>1644.6362930316</v>
       </c>
       <c r="D41" t="n">
-        <v>1347.463783240052</v>
+        <v>1208.726508206044</v>
       </c>
       <c r="E41" t="n">
-        <v>913.6890383983475</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="F41" t="n">
-        <v>485.8216088075553</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G41" t="n">
-        <v>84.42377743081919</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
-        <v>84.42377743081919</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1963.518315095384</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="M41" t="n">
-        <v>1963.518315095384</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N41" t="n">
-        <v>1963.518315095384</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O41" t="n">
-        <v>2846.380210748969</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P41" t="n">
-        <v>3674.690085582365</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q41" t="n">
-        <v>4221.18887154096</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R41" t="n">
         <v>4221.18887154096</v>
@@ -7441,22 +7441,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.18887154096</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.18887154096</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="V41" t="n">
-        <v>3880.099653077095</v>
+        <v>3638.504694347826</v>
       </c>
       <c r="W41" t="n">
-        <v>3475.244198488128</v>
+        <v>3233.649239758859</v>
       </c>
       <c r="X41" t="n">
-        <v>3056.101735067439</v>
+        <v>2814.50677633817</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.815611367093</v>
+        <v>2406.220652637823</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3064.120855053443</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>2957.664393890086</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>2862.574105036639</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>2768.453690363593</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>2685.069851979754</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>2599.684762245938</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>2557.949110062151</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
-        <v>2584.012783222609</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>2908.571108188821</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>4104.01609344662</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>4221.18887154096</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>4157.733433989342</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>4027.554790319944</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>3851.218243319912</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>3652.100725381912</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>3466.777971115106</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>3311.910535353986</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>3185.424756133207</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.7411622558066</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C43" t="n">
         <v>762.3581029909755</v>
@@ -7560,13 +7560,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7593,28 +7593,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2679.665566038991</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T43" t="n">
-        <v>2433.786119617446</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U43" t="n">
-        <v>2155.353118870551</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.397610740981</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W43" t="n">
-        <v>1596.371206327273</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.979451660686</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1123.559780974794</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1637.046905653768</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C44" t="n">
-        <v>1637.046905653768</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.593937796836</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E44" t="n">
-        <v>1202.819192955131</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F44" t="n">
-        <v>774.9517633643391</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G44" t="n">
-        <v>373.5539319876029</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
         <v>519.6784648837371</v>
@@ -7654,46 +7654,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>1697.046479425605</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M44" t="n">
-        <v>1697.046479425605</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N44" t="n">
-        <v>1697.046479425605</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O44" t="n">
-        <v>2677.226145995911</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.536020829308</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q44" t="n">
-        <v>4052.034806787903</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R44" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>4137.536997724796</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>3917.469770597835</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U44" t="n">
-        <v>3658.247467914852</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V44" t="n">
-        <v>3295.630517848678</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W44" t="n">
-        <v>2890.775063259712</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.632599839023</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.346476138676</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
         <v>1089.751822183213</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>953.1589835504346</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C46" t="n">
-        <v>780.5972720336596</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D46" t="n">
-        <v>614.7192792351823</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E46" t="n">
-        <v>444.9612754859195</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F46" t="n">
-        <v>268.2542214476757</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G46" t="n">
-        <v>102.6629464735034</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
         <v>171.0034625955091</v>
@@ -7833,25 +7833,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2701.083387333619</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T46" t="n">
-        <v>2455.203940912074</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.770940165179</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.81543203561</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.789027621901</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X46" t="n">
-        <v>1372.397272955314</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.977602269422</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434582</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.03100411261585</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>540.0049805212332</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>1055.29721788524</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>673.1591159399932</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>22.578475172396</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M11" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>624.7429452246682</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>673.1591159399932</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1011.616850682012</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>891.7796925793782</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>346.4825480643335</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>226.8308402899096</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>299.1701463650746</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,7 +22606,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -22707,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>340.8178741089159</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>202.4682032357991</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22953,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>103.1553467313937</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>37.48390060825122</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>307.9639287766328</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.665251405649599</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>26.32350280598092</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>21.72507576541756</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>239.5916306211079</v>
       </c>
     </row>
     <row r="15">
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>101.8291068583081</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25681,13 +25681,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>21.3124542862862</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.146865729424519</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1022487989372</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>21.31245428628529</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448790.0428884724</v>
+        <v>448790.0428884723</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448790.0428884725</v>
+        <v>448790.0428884723</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>607755.5360729407</v>
+        <v>607755.5360729408</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607755.5360729407</v>
+        <v>607755.5360729408</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607755.5360729407</v>
+        <v>607755.5360729408</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699156.0332870968</v>
+        <v>699156.0332870967</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699156.0332870968</v>
+        <v>699156.0332870967</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699156.0332870967</v>
+        <v>699156.0332870968</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699156.0332870967</v>
+        <v>699156.0332870968</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607755.5360729407</v>
+        <v>607755.5360729409</v>
       </c>
     </row>
     <row r="16">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120456.7261630934</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613196</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.1370162041</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>35023.37484795162</v>
+      </c>
+      <c r="C4" t="n">
         <v>35023.37484795161</v>
       </c>
-      <c r="C4" t="n">
-        <v>35023.37484795162</v>
-      </c>
       <c r="D4" t="n">
-        <v>47428.97105916857</v>
+        <v>47428.97105916859</v>
       </c>
       <c r="E4" t="n">
-        <v>47428.97105916857</v>
+        <v>47428.97105916859</v>
       </c>
       <c r="F4" t="n">
-        <v>47428.97105916857</v>
+        <v>47428.97105916859</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
@@ -26438,7 +26438,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
@@ -26447,7 +26447,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
@@ -26456,7 +26456,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>47428.97105916858</v>
+        <v>47428.97105916859</v>
       </c>
       <c r="P4" t="n">
         <v>47428.97105916859</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155385.203053354</v>
+        <v>-155880.0932819353</v>
       </c>
       <c r="C6" t="n">
-        <v>68314.49553069087</v>
+        <v>67819.60530210964</v>
       </c>
       <c r="D6" t="n">
-        <v>-25235.01702610981</v>
+        <v>-25430.43127324753</v>
       </c>
       <c r="E6" t="n">
-        <v>128849.3091369836</v>
+        <v>128653.894889846</v>
       </c>
       <c r="F6" t="n">
-        <v>128849.3091369836</v>
+        <v>128653.8948898461</v>
       </c>
       <c r="G6" t="n">
-        <v>83209.27585056282</v>
+        <v>83186.05151118024</v>
       </c>
       <c r="H6" t="n">
-        <v>144320.1679566948</v>
+        <v>144296.9436173121</v>
       </c>
       <c r="I6" t="n">
-        <v>144320.1679566948</v>
+        <v>144296.9436173121</v>
       </c>
       <c r="J6" t="n">
-        <v>-30331.18076101146</v>
+        <v>-30354.40510039401</v>
       </c>
       <c r="K6" t="n">
-        <v>144320.1679566948</v>
+        <v>144296.9436173121</v>
       </c>
       <c r="L6" t="n">
-        <v>46176.03094049066</v>
+        <v>46152.80660110793</v>
       </c>
       <c r="M6" t="n">
-        <v>144320.1679566948</v>
+        <v>144296.9436173121</v>
       </c>
       <c r="N6" t="n">
-        <v>144320.1679566948</v>
+        <v>144296.9436173121</v>
       </c>
       <c r="O6" t="n">
-        <v>128849.3091369836</v>
+        <v>128653.8948898461</v>
       </c>
       <c r="P6" t="n">
-        <v>128849.3091369836</v>
+        <v>128653.8948898461</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434582</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.03100411261585</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>540.0049805212332</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>1055.29721788524</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>673.1591159399932</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>22.578475172396</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M11" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>624.7429452246682</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>673.1591159399932</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1011.616850682012</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37089,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>891.7796925793782</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>346.4825480643335</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
